--- a/data/technology_patents/files/epo_env_c.xlsx
+++ b/data/technology_patents/files/epo_env_c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420D43B5-345B-2D46-9D32-D5681078D0F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C821486-B8B8-C04D-833D-5206B749A46B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19200" xr2:uid="{FC31BB78-2D5F-4B4B-8790-C90272366837}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="A1:C1801"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1009" workbookViewId="0">
-      <selection activeCell="A1097" sqref="A1097"/>
+      <selection activeCell="C1021" sqref="C1021"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1758,9 +1758,6 @@
       <c r="B95">
         <v>2002</v>
       </c>
-      <c r="C95" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -1769,9 +1766,6 @@
       <c r="B96">
         <v>2003</v>
       </c>
-      <c r="C96" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
@@ -1780,9 +1774,6 @@
       <c r="B97">
         <v>2004</v>
       </c>
-      <c r="C97" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -1802,9 +1793,6 @@
       <c r="B99">
         <v>2006</v>
       </c>
-      <c r="C99" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
@@ -1824,9 +1812,6 @@
       <c r="B101">
         <v>2008</v>
       </c>
-      <c r="C101" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -2319,9 +2304,6 @@
       <c r="B146">
         <v>1999</v>
       </c>
-      <c r="C146" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
@@ -2341,9 +2323,6 @@
       <c r="B148">
         <v>2001</v>
       </c>
-      <c r="C148" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
@@ -2352,9 +2331,6 @@
       <c r="B149">
         <v>2002</v>
       </c>
-      <c r="C149" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -2385,9 +2361,6 @@
       <c r="B152">
         <v>2005</v>
       </c>
-      <c r="C152" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
@@ -2396,9 +2369,6 @@
       <c r="B153">
         <v>2006</v>
       </c>
-      <c r="C153" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
@@ -3529,9 +3499,6 @@
       <c r="B256">
         <v>2001</v>
       </c>
-      <c r="C256" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
@@ -3540,9 +3507,6 @@
       <c r="B257">
         <v>2002</v>
       </c>
-      <c r="C257" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
@@ -3595,9 +3559,6 @@
       <c r="B262">
         <v>2007</v>
       </c>
-      <c r="C262" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
@@ -3606,9 +3567,6 @@
       <c r="B263">
         <v>2008</v>
       </c>
-      <c r="C263" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
@@ -4695,9 +4653,6 @@
       <c r="B362">
         <v>1999</v>
       </c>
-      <c r="C362" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
@@ -4728,9 +4683,6 @@
       <c r="B365">
         <v>2002</v>
       </c>
-      <c r="C365" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
@@ -4761,9 +4713,6 @@
       <c r="B368">
         <v>2005</v>
       </c>
-      <c r="C368" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
@@ -4794,9 +4743,6 @@
       <c r="B371">
         <v>2008</v>
       </c>
-      <c r="C371" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
@@ -4816,9 +4762,6 @@
       <c r="B373">
         <v>2010</v>
       </c>
-      <c r="C373" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
@@ -4860,9 +4803,6 @@
       <c r="B377">
         <v>2014</v>
       </c>
-      <c r="C377" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
@@ -4871,9 +4811,6 @@
       <c r="B378">
         <v>2015</v>
       </c>
-      <c r="C378" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
@@ -4882,9 +4819,6 @@
       <c r="B379">
         <v>2016</v>
       </c>
-      <c r="C379" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
@@ -4893,9 +4827,6 @@
       <c r="B380">
         <v>1999</v>
       </c>
-      <c r="C380" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
@@ -4915,9 +4846,6 @@
       <c r="B382">
         <v>2001</v>
       </c>
-      <c r="C382" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
@@ -4926,9 +4854,6 @@
       <c r="B383">
         <v>2002</v>
       </c>
-      <c r="C383" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
@@ -4937,9 +4862,6 @@
       <c r="B384">
         <v>2003</v>
       </c>
-      <c r="C384" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
@@ -4948,9 +4870,6 @@
       <c r="B385">
         <v>2004</v>
       </c>
-      <c r="C385" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
@@ -6510,9 +6429,6 @@
       <c r="B527">
         <v>2002</v>
       </c>
-      <c r="C527" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
@@ -8061,9 +7977,6 @@
       <c r="B668">
         <v>1999</v>
       </c>
-      <c r="C668" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
@@ -8072,9 +7985,6 @@
       <c r="B669">
         <v>2000</v>
       </c>
-      <c r="C669" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
@@ -8083,9 +7993,6 @@
       <c r="B670">
         <v>2001</v>
       </c>
-      <c r="C670" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
@@ -8116,9 +8023,6 @@
       <c r="B673">
         <v>2004</v>
       </c>
-      <c r="C673" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
@@ -8127,9 +8031,6 @@
       <c r="B674">
         <v>2005</v>
       </c>
-      <c r="C674" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
@@ -8160,9 +8061,6 @@
       <c r="B677">
         <v>2008</v>
       </c>
-      <c r="C677" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
@@ -8171,9 +8069,6 @@
       <c r="B678">
         <v>2009</v>
       </c>
-      <c r="C678" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
@@ -8182,9 +8077,6 @@
       <c r="B679">
         <v>2010</v>
       </c>
-      <c r="C679" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
@@ -8226,9 +8118,6 @@
       <c r="B683">
         <v>2014</v>
       </c>
-      <c r="C683" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
@@ -8237,9 +8126,6 @@
       <c r="B684">
         <v>2015</v>
       </c>
-      <c r="C684" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
@@ -8248,9 +8134,6 @@
       <c r="B685">
         <v>2016</v>
       </c>
-      <c r="C685" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
@@ -8259,9 +8142,6 @@
       <c r="B686">
         <v>1999</v>
       </c>
-      <c r="C686" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
@@ -8270,9 +8150,6 @@
       <c r="B687">
         <v>2000</v>
       </c>
-      <c r="C687" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
@@ -8281,9 +8158,6 @@
       <c r="B688">
         <v>2001</v>
       </c>
-      <c r="C688" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
@@ -8292,9 +8166,6 @@
       <c r="B689">
         <v>2002</v>
       </c>
-      <c r="C689" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
@@ -8303,9 +8174,6 @@
       <c r="B690">
         <v>2003</v>
       </c>
-      <c r="C690" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
@@ -8314,9 +8182,6 @@
       <c r="B691">
         <v>2004</v>
       </c>
-      <c r="C691" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
@@ -8325,9 +8190,6 @@
       <c r="B692">
         <v>2005</v>
       </c>
-      <c r="C692" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
@@ -8336,9 +8198,6 @@
       <c r="B693">
         <v>2006</v>
       </c>
-      <c r="C693" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
@@ -8347,9 +8206,6 @@
       <c r="B694">
         <v>2007</v>
       </c>
-      <c r="C694" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
@@ -8358,9 +8214,6 @@
       <c r="B695">
         <v>2008</v>
       </c>
-      <c r="C695" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
@@ -8369,9 +8222,6 @@
       <c r="B696">
         <v>2009</v>
       </c>
-      <c r="C696" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
@@ -8380,9 +8230,6 @@
       <c r="B697">
         <v>2010</v>
       </c>
-      <c r="C697" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
@@ -8391,9 +8238,6 @@
       <c r="B698">
         <v>2011</v>
       </c>
-      <c r="C698" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
@@ -8402,9 +8246,6 @@
       <c r="B699">
         <v>2012</v>
       </c>
-      <c r="C699" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
@@ -8424,9 +8265,6 @@
       <c r="B701">
         <v>2014</v>
       </c>
-      <c r="C701" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
@@ -8446,9 +8284,6 @@
       <c r="B703">
         <v>2016</v>
       </c>
-      <c r="C703" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
@@ -8501,9 +8336,6 @@
       <c r="B708">
         <v>2003</v>
       </c>
-      <c r="C708" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
@@ -8512,9 +8344,6 @@
       <c r="B709">
         <v>2004</v>
       </c>
-      <c r="C709" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
@@ -8655,9 +8484,6 @@
       <c r="B722">
         <v>1999</v>
       </c>
-      <c r="C722" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
@@ -8666,9 +8492,6 @@
       <c r="B723">
         <v>2000</v>
       </c>
-      <c r="C723" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
@@ -8677,9 +8500,6 @@
       <c r="B724">
         <v>2001</v>
       </c>
-      <c r="C724" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
@@ -8688,9 +8508,6 @@
       <c r="B725">
         <v>2002</v>
       </c>
-      <c r="C725" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
@@ -8699,9 +8516,6 @@
       <c r="B726">
         <v>2003</v>
       </c>
-      <c r="C726" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
@@ -8732,9 +8546,6 @@
       <c r="B729">
         <v>2006</v>
       </c>
-      <c r="C729" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
@@ -8743,9 +8554,6 @@
       <c r="B730">
         <v>2007</v>
       </c>
-      <c r="C730" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
@@ -8754,9 +8562,6 @@
       <c r="B731">
         <v>2008</v>
       </c>
-      <c r="C731" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
@@ -8776,9 +8581,6 @@
       <c r="B733">
         <v>2010</v>
       </c>
-      <c r="C733" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
@@ -8787,9 +8589,6 @@
       <c r="B734">
         <v>2011</v>
       </c>
-      <c r="C734" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
@@ -8853,9 +8652,6 @@
       <c r="B740">
         <v>1999</v>
       </c>
-      <c r="C740" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
@@ -8864,9 +8660,6 @@
       <c r="B741">
         <v>2000</v>
       </c>
-      <c r="C741" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
@@ -8875,9 +8668,6 @@
       <c r="B742">
         <v>2001</v>
       </c>
-      <c r="C742" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
@@ -8897,9 +8687,6 @@
       <c r="B744">
         <v>2003</v>
       </c>
-      <c r="C744" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
@@ -8930,9 +8717,6 @@
       <c r="B747">
         <v>2006</v>
       </c>
-      <c r="C747" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
@@ -8952,9 +8736,6 @@
       <c r="B749">
         <v>2008</v>
       </c>
-      <c r="C749" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
@@ -9018,9 +8799,6 @@
       <c r="B755">
         <v>2014</v>
       </c>
-      <c r="C755" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
@@ -9029,9 +8807,6 @@
       <c r="B756">
         <v>2015</v>
       </c>
-      <c r="C756" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
@@ -9051,9 +8826,6 @@
       <c r="B758">
         <v>1999</v>
       </c>
-      <c r="C758" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
@@ -9062,9 +8834,6 @@
       <c r="B759">
         <v>2000</v>
       </c>
-      <c r="C759" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
@@ -9073,9 +8842,6 @@
       <c r="B760">
         <v>2001</v>
       </c>
-      <c r="C760" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
@@ -9084,9 +8850,6 @@
       <c r="B761">
         <v>2002</v>
       </c>
-      <c r="C761" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
@@ -9095,9 +8858,6 @@
       <c r="B762">
         <v>2003</v>
       </c>
-      <c r="C762" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
@@ -9106,9 +8866,6 @@
       <c r="B763">
         <v>2004</v>
       </c>
-      <c r="C763" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
@@ -9117,9 +8874,6 @@
       <c r="B764">
         <v>2005</v>
       </c>
-      <c r="C764" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
@@ -9139,9 +8893,6 @@
       <c r="B766">
         <v>2007</v>
       </c>
-      <c r="C766" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
@@ -9150,9 +8901,6 @@
       <c r="B767">
         <v>2008</v>
       </c>
-      <c r="C767" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
@@ -9161,9 +8909,6 @@
       <c r="B768">
         <v>2009</v>
       </c>
-      <c r="C768" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
@@ -9172,9 +8917,6 @@
       <c r="B769">
         <v>2010</v>
       </c>
-      <c r="C769" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
@@ -9183,9 +8925,6 @@
       <c r="B770">
         <v>2011</v>
       </c>
-      <c r="C770" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
@@ -9194,9 +8933,6 @@
       <c r="B771">
         <v>2012</v>
       </c>
-      <c r="C771" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
@@ -9205,9 +8941,6 @@
       <c r="B772">
         <v>2013</v>
       </c>
-      <c r="C772" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
@@ -9216,9 +8949,6 @@
       <c r="B773">
         <v>2014</v>
       </c>
-      <c r="C773" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
@@ -9227,9 +8957,6 @@
       <c r="B774">
         <v>2015</v>
       </c>
-      <c r="C774" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
@@ -9238,9 +8965,6 @@
       <c r="B775">
         <v>2016</v>
       </c>
-      <c r="C775" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
@@ -9249,9 +8973,6 @@
       <c r="B776">
         <v>1999</v>
       </c>
-      <c r="C776" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
@@ -9260,9 +8981,6 @@
       <c r="B777">
         <v>2000</v>
       </c>
-      <c r="C777" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
@@ -9271,9 +8989,6 @@
       <c r="B778">
         <v>2001</v>
       </c>
-      <c r="C778" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
@@ -9282,9 +8997,6 @@
       <c r="B779">
         <v>2002</v>
       </c>
-      <c r="C779" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
@@ -9293,9 +9005,6 @@
       <c r="B780">
         <v>2003</v>
       </c>
-      <c r="C780" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
@@ -9315,9 +9024,6 @@
       <c r="B782">
         <v>2005</v>
       </c>
-      <c r="C782" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
@@ -9326,9 +9032,6 @@
       <c r="B783">
         <v>2006</v>
       </c>
-      <c r="C783" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
@@ -9348,9 +9051,6 @@
       <c r="B785">
         <v>2008</v>
       </c>
-      <c r="C785" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
@@ -9359,9 +9059,6 @@
       <c r="B786">
         <v>2009</v>
       </c>
-      <c r="C786" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
@@ -9370,9 +9067,6 @@
       <c r="B787">
         <v>2010</v>
       </c>
-      <c r="C787" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
@@ -9381,9 +9075,6 @@
       <c r="B788">
         <v>2011</v>
       </c>
-      <c r="C788" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
@@ -9392,9 +9083,6 @@
       <c r="B789">
         <v>2012</v>
       </c>
-      <c r="C789" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
@@ -9425,9 +9113,6 @@
       <c r="B792">
         <v>2015</v>
       </c>
-      <c r="C792" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
@@ -9436,9 +9121,6 @@
       <c r="B793">
         <v>2016</v>
       </c>
-      <c r="C793" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
@@ -9722,9 +9404,6 @@
       <c r="B819">
         <v>2006</v>
       </c>
-      <c r="C819" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
@@ -9733,9 +9412,6 @@
       <c r="B820">
         <v>2007</v>
       </c>
-      <c r="C820" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
@@ -9843,9 +9519,6 @@
       <c r="B830">
         <v>1999</v>
       </c>
-      <c r="C830" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
@@ -9854,9 +9527,6 @@
       <c r="B831">
         <v>2000</v>
       </c>
-      <c r="C831" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
@@ -9865,9 +9535,6 @@
       <c r="B832">
         <v>2001</v>
       </c>
-      <c r="C832" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
@@ -9876,9 +9543,6 @@
       <c r="B833">
         <v>2002</v>
       </c>
-      <c r="C833" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
@@ -9887,9 +9551,6 @@
       <c r="B834">
         <v>2003</v>
       </c>
-      <c r="C834" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
@@ -9898,9 +9559,6 @@
       <c r="B835">
         <v>2004</v>
       </c>
-      <c r="C835" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
@@ -9909,9 +9567,6 @@
       <c r="B836">
         <v>2005</v>
       </c>
-      <c r="C836" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
@@ -9920,9 +9575,6 @@
       <c r="B837">
         <v>2006</v>
       </c>
-      <c r="C837" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
@@ -9931,9 +9583,6 @@
       <c r="B838">
         <v>2007</v>
       </c>
-      <c r="C838" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
@@ -9942,9 +9591,6 @@
       <c r="B839">
         <v>2008</v>
       </c>
-      <c r="C839" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
@@ -9953,9 +9599,6 @@
       <c r="B840">
         <v>2009</v>
       </c>
-      <c r="C840" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
@@ -9964,9 +9607,6 @@
       <c r="B841">
         <v>2010</v>
       </c>
-      <c r="C841" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
@@ -9975,9 +9615,6 @@
       <c r="B842">
         <v>2011</v>
       </c>
-      <c r="C842" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
@@ -9986,9 +9623,6 @@
       <c r="B843">
         <v>2012</v>
       </c>
-      <c r="C843" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
@@ -9997,9 +9631,6 @@
       <c r="B844">
         <v>2013</v>
       </c>
-      <c r="C844" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
@@ -10008,9 +9639,6 @@
       <c r="B845">
         <v>2014</v>
       </c>
-      <c r="C845" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
@@ -10019,9 +9647,6 @@
       <c r="B846">
         <v>2015</v>
       </c>
-      <c r="C846" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
@@ -10030,9 +9655,6 @@
       <c r="B847">
         <v>2016</v>
       </c>
-      <c r="C847" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
@@ -10250,9 +9872,6 @@
       <c r="B867">
         <v>2000</v>
       </c>
-      <c r="C867" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
@@ -10261,9 +9880,6 @@
       <c r="B868">
         <v>2001</v>
       </c>
-      <c r="C868" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
@@ -10272,9 +9888,6 @@
       <c r="B869">
         <v>2002</v>
       </c>
-      <c r="C869" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
@@ -10283,9 +9896,6 @@
       <c r="B870">
         <v>2003</v>
       </c>
-      <c r="C870" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
@@ -10294,9 +9904,6 @@
       <c r="B871">
         <v>2004</v>
       </c>
-      <c r="C871" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
@@ -10316,9 +9923,6 @@
       <c r="B873">
         <v>2006</v>
       </c>
-      <c r="C873" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
@@ -10327,9 +9931,6 @@
       <c r="B874">
         <v>2007</v>
       </c>
-      <c r="C874" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
@@ -10349,9 +9950,6 @@
       <c r="B876">
         <v>2009</v>
       </c>
-      <c r="C876" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
@@ -10360,9 +9958,6 @@
       <c r="B877">
         <v>2010</v>
       </c>
-      <c r="C877" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
@@ -10371,9 +9966,6 @@
       <c r="B878">
         <v>2011</v>
       </c>
-      <c r="C878" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
@@ -10393,9 +9985,6 @@
       <c r="B880">
         <v>2013</v>
       </c>
-      <c r="C880" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
@@ -10404,9 +9993,6 @@
       <c r="B881">
         <v>2014</v>
       </c>
-      <c r="C881" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
@@ -10415,9 +10001,6 @@
       <c r="B882">
         <v>2015</v>
       </c>
-      <c r="C882" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
@@ -10426,9 +10009,6 @@
       <c r="B883">
         <v>2016</v>
       </c>
-      <c r="C883" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
@@ -10459,9 +10039,6 @@
       <c r="B886">
         <v>2001</v>
       </c>
-      <c r="C886" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
@@ -10481,9 +10058,6 @@
       <c r="B888">
         <v>2003</v>
       </c>
-      <c r="C888" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
@@ -10492,9 +10066,6 @@
       <c r="B889">
         <v>2004</v>
       </c>
-      <c r="C889" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
@@ -10503,9 +10074,6 @@
       <c r="B890">
         <v>2005</v>
       </c>
-      <c r="C890" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
@@ -10635,9 +10203,6 @@
       <c r="B902">
         <v>1999</v>
       </c>
-      <c r="C902" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
@@ -10646,9 +10211,6 @@
       <c r="B903">
         <v>2000</v>
       </c>
-      <c r="C903" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
@@ -10657,9 +10219,6 @@
       <c r="B904">
         <v>2001</v>
       </c>
-      <c r="C904" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
@@ -10668,9 +10227,6 @@
       <c r="B905">
         <v>2002</v>
       </c>
-      <c r="C905" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
@@ -10690,9 +10246,6 @@
       <c r="B907">
         <v>2004</v>
       </c>
-      <c r="C907" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
@@ -10701,9 +10254,6 @@
       <c r="B908">
         <v>2005</v>
       </c>
-      <c r="C908" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
@@ -10723,9 +10273,6 @@
       <c r="B910">
         <v>2007</v>
       </c>
-      <c r="C910" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
@@ -10734,9 +10281,6 @@
       <c r="B911">
         <v>2008</v>
       </c>
-      <c r="C911" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
@@ -10745,9 +10289,6 @@
       <c r="B912">
         <v>2009</v>
       </c>
-      <c r="C912" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
@@ -10756,9 +10297,6 @@
       <c r="B913">
         <v>2010</v>
       </c>
-      <c r="C913" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
@@ -10767,9 +10305,6 @@
       <c r="B914">
         <v>2011</v>
       </c>
-      <c r="C914" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
@@ -10789,9 +10324,6 @@
       <c r="B916">
         <v>2013</v>
       </c>
-      <c r="C916" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
@@ -10800,9 +10332,6 @@
       <c r="B917">
         <v>2014</v>
       </c>
-      <c r="C917" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
@@ -10811,9 +10340,6 @@
       <c r="B918">
         <v>2015</v>
       </c>
-      <c r="C918" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
@@ -10822,9 +10348,6 @@
       <c r="B919">
         <v>2016</v>
       </c>
-      <c r="C919" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
@@ -10833,9 +10356,6 @@
       <c r="B920">
         <v>1999</v>
       </c>
-      <c r="C920" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
@@ -10888,9 +10408,6 @@
       <c r="B925">
         <v>2004</v>
       </c>
-      <c r="C925" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
@@ -10998,9 +10515,6 @@
       <c r="B935">
         <v>2014</v>
       </c>
-      <c r="C935" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
@@ -11031,9 +10545,6 @@
       <c r="B938">
         <v>1999</v>
       </c>
-      <c r="C938" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
@@ -11042,9 +10553,6 @@
       <c r="B939">
         <v>2000</v>
       </c>
-      <c r="C939" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
@@ -11053,9 +10561,6 @@
       <c r="B940">
         <v>2001</v>
       </c>
-      <c r="C940" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
@@ -11064,9 +10569,6 @@
       <c r="B941">
         <v>2002</v>
       </c>
-      <c r="C941" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
@@ -11075,9 +10577,6 @@
       <c r="B942">
         <v>2003</v>
       </c>
-      <c r="C942" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
@@ -11086,9 +10585,6 @@
       <c r="B943">
         <v>2004</v>
       </c>
-      <c r="C943" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
@@ -11097,9 +10593,6 @@
       <c r="B944">
         <v>2005</v>
       </c>
-      <c r="C944" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
@@ -11108,9 +10601,6 @@
       <c r="B945">
         <v>2006</v>
       </c>
-      <c r="C945" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
@@ -11119,9 +10609,6 @@
       <c r="B946">
         <v>2007</v>
       </c>
-      <c r="C946" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
@@ -11130,9 +10617,6 @@
       <c r="B947">
         <v>2008</v>
       </c>
-      <c r="C947" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
@@ -11141,9 +10625,6 @@
       <c r="B948">
         <v>2009</v>
       </c>
-      <c r="C948" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
@@ -11152,9 +10633,6 @@
       <c r="B949">
         <v>2010</v>
       </c>
-      <c r="C949" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
@@ -11174,9 +10652,6 @@
       <c r="B951">
         <v>2012</v>
       </c>
-      <c r="C951" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
@@ -11185,9 +10660,6 @@
       <c r="B952">
         <v>2013</v>
       </c>
-      <c r="C952" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
@@ -11196,9 +10668,6 @@
       <c r="B953">
         <v>2014</v>
       </c>
-      <c r="C953" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
@@ -11207,9 +10676,6 @@
       <c r="B954">
         <v>2015</v>
       </c>
-      <c r="C954" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
@@ -11218,9 +10684,6 @@
       <c r="B955">
         <v>2016</v>
       </c>
-      <c r="C955" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A956" s="1" t="s">
@@ -11240,9 +10703,6 @@
       <c r="B957">
         <v>2000</v>
       </c>
-      <c r="C957" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A958" s="1" t="s">
@@ -11251,9 +10711,6 @@
       <c r="B958">
         <v>2001</v>
       </c>
-      <c r="C958" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A959" s="1" t="s">
@@ -11262,9 +10719,6 @@
       <c r="B959">
         <v>2002</v>
       </c>
-      <c r="C959" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A960" s="1" t="s">
@@ -11273,9 +10727,6 @@
       <c r="B960">
         <v>2003</v>
       </c>
-      <c r="C960" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" s="1" t="s">
@@ -11295,9 +10746,6 @@
       <c r="B962">
         <v>2005</v>
       </c>
-      <c r="C962" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" s="1" t="s">
@@ -11306,9 +10754,6 @@
       <c r="B963">
         <v>2006</v>
       </c>
-      <c r="C963" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" s="1" t="s">
@@ -11328,9 +10773,6 @@
       <c r="B965">
         <v>2008</v>
       </c>
-      <c r="C965" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" s="1" t="s">
@@ -11339,9 +10781,6 @@
       <c r="B966">
         <v>2009</v>
       </c>
-      <c r="C966" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" s="1" t="s">
@@ -11394,9 +10833,6 @@
       <c r="B971">
         <v>2014</v>
       </c>
-      <c r="C971" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" s="1" t="s">
@@ -11405,9 +10841,6 @@
       <c r="B972">
         <v>2015</v>
       </c>
-      <c r="C972" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" s="1" t="s">
@@ -11416,9 +10849,6 @@
       <c r="B973">
         <v>2016</v>
       </c>
-      <c r="C973" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
@@ -11449,9 +10879,6 @@
       <c r="B976">
         <v>2001</v>
       </c>
-      <c r="C976" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
@@ -11460,9 +10887,6 @@
       <c r="B977">
         <v>2002</v>
       </c>
-      <c r="C977" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
@@ -11471,9 +10895,6 @@
       <c r="B978">
         <v>2003</v>
       </c>
-      <c r="C978" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
@@ -11537,9 +10958,6 @@
       <c r="B984">
         <v>2009</v>
       </c>
-      <c r="C984" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
@@ -11548,9 +10966,6 @@
       <c r="B985">
         <v>2010</v>
       </c>
-      <c r="C985" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
@@ -11559,9 +10974,6 @@
       <c r="B986">
         <v>2011</v>
       </c>
-      <c r="C986" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
@@ -11592,9 +11004,6 @@
       <c r="B989">
         <v>2014</v>
       </c>
-      <c r="C989" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
@@ -11614,9 +11023,6 @@
       <c r="B991">
         <v>2016</v>
       </c>
-      <c r="C991" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
@@ -11647,9 +11053,6 @@
       <c r="B994">
         <v>2001</v>
       </c>
-      <c r="C994" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
@@ -11680,9 +11083,6 @@
       <c r="B997">
         <v>2004</v>
       </c>
-      <c r="C997" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
@@ -11691,9 +11091,6 @@
       <c r="B998">
         <v>2005</v>
       </c>
-      <c r="C998" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
@@ -11702,9 +11099,6 @@
       <c r="B999">
         <v>2006</v>
       </c>
-      <c r="C999" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
@@ -11713,9 +11107,6 @@
       <c r="B1000">
         <v>2007</v>
       </c>
-      <c r="C1000" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
@@ -11724,9 +11115,6 @@
       <c r="B1001">
         <v>2008</v>
       </c>
-      <c r="C1001" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
@@ -11735,9 +11123,6 @@
       <c r="B1002">
         <v>2009</v>
       </c>
-      <c r="C1002" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
@@ -11746,9 +11131,6 @@
       <c r="B1003">
         <v>2010</v>
       </c>
-      <c r="C1003" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
@@ -11757,9 +11139,6 @@
       <c r="B1004">
         <v>2011</v>
       </c>
-      <c r="C1004" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
@@ -11768,9 +11147,6 @@
       <c r="B1005">
         <v>2012</v>
       </c>
-      <c r="C1005" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
@@ -11779,9 +11155,6 @@
       <c r="B1006">
         <v>2013</v>
       </c>
-      <c r="C1006" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
@@ -11790,9 +11163,6 @@
       <c r="B1007">
         <v>2014</v>
       </c>
-      <c r="C1007" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
@@ -11801,9 +11171,6 @@
       <c r="B1008">
         <v>2015</v>
       </c>
-      <c r="C1008" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
@@ -11812,9 +11179,6 @@
       <c r="B1009">
         <v>2016</v>
       </c>
-      <c r="C1009" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
@@ -11834,9 +11198,6 @@
       <c r="B1011">
         <v>2000</v>
       </c>
-      <c r="C1011" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
@@ -11867,9 +11228,6 @@
       <c r="B1014">
         <v>2003</v>
       </c>
-      <c r="C1014" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
@@ -11889,9 +11247,6 @@
       <c r="B1016">
         <v>2005</v>
       </c>
-      <c r="C1016" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
@@ -11900,9 +11255,6 @@
       <c r="B1017">
         <v>2006</v>
       </c>
-      <c r="C1017" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
@@ -11922,9 +11274,6 @@
       <c r="B1019">
         <v>2008</v>
       </c>
-      <c r="C1019" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
@@ -11933,9 +11282,6 @@
       <c r="B1020">
         <v>2009</v>
       </c>
-      <c r="C1020" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
@@ -11944,9 +11290,6 @@
       <c r="B1021">
         <v>2010</v>
       </c>
-      <c r="C1021" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
@@ -11955,9 +11298,6 @@
       <c r="B1022">
         <v>2011</v>
       </c>
-      <c r="C1022" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
@@ -11977,9 +11317,6 @@
       <c r="B1024">
         <v>2013</v>
       </c>
-      <c r="C1024" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
@@ -11988,9 +11325,6 @@
       <c r="B1025">
         <v>2014</v>
       </c>
-      <c r="C1025" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
@@ -11999,9 +11333,6 @@
       <c r="B1026">
         <v>2015</v>
       </c>
-      <c r="C1026" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
@@ -12021,9 +11352,6 @@
       <c r="B1028">
         <v>1999</v>
       </c>
-      <c r="C1028" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
@@ -12032,9 +11360,6 @@
       <c r="B1029">
         <v>2000</v>
       </c>
-      <c r="C1029" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
@@ -12054,9 +11379,6 @@
       <c r="B1031">
         <v>2002</v>
       </c>
-      <c r="C1031" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
@@ -12065,9 +11387,6 @@
       <c r="B1032">
         <v>2003</v>
       </c>
-      <c r="C1032" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
@@ -12087,9 +11406,6 @@
       <c r="B1034">
         <v>2005</v>
       </c>
-      <c r="C1034" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
@@ -12098,9 +11414,6 @@
       <c r="B1035">
         <v>2006</v>
       </c>
-      <c r="C1035" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
@@ -12109,9 +11422,6 @@
       <c r="B1036">
         <v>2007</v>
       </c>
-      <c r="C1036" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
@@ -12120,9 +11430,6 @@
       <c r="B1037">
         <v>2008</v>
       </c>
-      <c r="C1037" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
@@ -12131,9 +11438,6 @@
       <c r="B1038">
         <v>2009</v>
       </c>
-      <c r="C1038" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
@@ -12142,9 +11446,6 @@
       <c r="B1039">
         <v>2010</v>
       </c>
-      <c r="C1039" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
@@ -12153,9 +11454,6 @@
       <c r="B1040">
         <v>2011</v>
       </c>
-      <c r="C1040" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
@@ -12164,9 +11462,6 @@
       <c r="B1041">
         <v>2012</v>
       </c>
-      <c r="C1041" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
@@ -12175,9 +11470,6 @@
       <c r="B1042">
         <v>2013</v>
       </c>
-      <c r="C1042" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
@@ -12186,9 +11478,6 @@
       <c r="B1043">
         <v>2014</v>
       </c>
-      <c r="C1043" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
@@ -12197,9 +11486,6 @@
       <c r="B1044">
         <v>2015</v>
       </c>
-      <c r="C1044" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
@@ -12208,9 +11494,6 @@
       <c r="B1045">
         <v>2016</v>
       </c>
-      <c r="C1045" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
@@ -12615,9 +11898,6 @@
       <c r="B1082">
         <v>1999</v>
       </c>
-      <c r="C1082" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
@@ -12637,9 +11917,6 @@
       <c r="B1084">
         <v>2001</v>
       </c>
-      <c r="C1084" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
@@ -12659,9 +11936,6 @@
       <c r="B1086">
         <v>2003</v>
       </c>
-      <c r="C1086" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
@@ -12714,9 +11988,6 @@
       <c r="B1091">
         <v>2008</v>
       </c>
-      <c r="C1091" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
@@ -12747,9 +12018,6 @@
       <c r="B1094">
         <v>2011</v>
       </c>
-      <c r="C1094" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
@@ -12835,9 +12103,6 @@
       <c r="B1102">
         <v>2001</v>
       </c>
-      <c r="C1102" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
@@ -12846,9 +12111,6 @@
       <c r="B1103">
         <v>2002</v>
       </c>
-      <c r="C1103" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
@@ -12912,9 +12174,6 @@
       <c r="B1109">
         <v>2008</v>
       </c>
-      <c r="C1109" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
@@ -12923,9 +12182,6 @@
       <c r="B1110">
         <v>2009</v>
       </c>
-      <c r="C1110" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
@@ -13011,9 +12267,6 @@
       <c r="B1118">
         <v>1999</v>
       </c>
-      <c r="C1118" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
@@ -13022,9 +12275,6 @@
       <c r="B1119">
         <v>2000</v>
       </c>
-      <c r="C1119" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
@@ -13033,9 +12283,6 @@
       <c r="B1120">
         <v>2001</v>
       </c>
-      <c r="C1120" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
@@ -13044,9 +12291,6 @@
       <c r="B1121">
         <v>2002</v>
       </c>
-      <c r="C1121" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
@@ -13055,9 +12299,6 @@
       <c r="B1122">
         <v>2003</v>
       </c>
-      <c r="C1122" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
@@ -13099,9 +12340,6 @@
       <c r="B1126">
         <v>2007</v>
       </c>
-      <c r="C1126" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
@@ -13110,9 +12348,6 @@
       <c r="B1127">
         <v>2008</v>
       </c>
-      <c r="C1127" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
@@ -13121,9 +12356,6 @@
       <c r="B1128">
         <v>2009</v>
       </c>
-      <c r="C1128" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
@@ -13132,9 +12364,6 @@
       <c r="B1129">
         <v>2010</v>
       </c>
-      <c r="C1129" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
@@ -13143,9 +12372,6 @@
       <c r="B1130">
         <v>2011</v>
       </c>
-      <c r="C1130" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
@@ -13154,9 +12380,6 @@
       <c r="B1131">
         <v>2012</v>
       </c>
-      <c r="C1131" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
@@ -13165,9 +12388,6 @@
       <c r="B1132">
         <v>2013</v>
       </c>
-      <c r="C1132" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
@@ -13176,9 +12396,6 @@
       <c r="B1133">
         <v>2014</v>
       </c>
-      <c r="C1133" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
@@ -13187,9 +12404,6 @@
       <c r="B1134">
         <v>2015</v>
       </c>
-      <c r="C1134" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
@@ -13198,9 +12412,6 @@
       <c r="B1135">
         <v>2016</v>
       </c>
-      <c r="C1135" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
@@ -13209,9 +12420,6 @@
       <c r="B1136">
         <v>1999</v>
       </c>
-      <c r="C1136" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
@@ -13220,9 +12428,6 @@
       <c r="B1137">
         <v>2000</v>
       </c>
-      <c r="C1137" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
@@ -13231,9 +12436,6 @@
       <c r="B1138">
         <v>2001</v>
       </c>
-      <c r="C1138" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
@@ -13253,9 +12455,6 @@
       <c r="B1140">
         <v>2003</v>
       </c>
-      <c r="C1140" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
@@ -13264,9 +12463,6 @@
       <c r="B1141">
         <v>2004</v>
       </c>
-      <c r="C1141" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
@@ -13275,9 +12471,6 @@
       <c r="B1142">
         <v>2005</v>
       </c>
-      <c r="C1142" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
@@ -13308,9 +12501,6 @@
       <c r="B1145">
         <v>2008</v>
       </c>
-      <c r="C1145" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
@@ -13319,9 +12509,6 @@
       <c r="B1146">
         <v>2009</v>
       </c>
-      <c r="C1146" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
@@ -13330,9 +12517,6 @@
       <c r="B1147">
         <v>2010</v>
       </c>
-      <c r="C1147" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
@@ -13352,9 +12536,6 @@
       <c r="B1149">
         <v>2012</v>
       </c>
-      <c r="C1149" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
@@ -13385,9 +12566,6 @@
       <c r="B1152">
         <v>2015</v>
       </c>
-      <c r="C1152" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
@@ -13396,9 +12574,6 @@
       <c r="B1153">
         <v>2016</v>
       </c>
-      <c r="C1153" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
@@ -13407,9 +12582,6 @@
       <c r="B1154">
         <v>1999</v>
       </c>
-      <c r="C1154" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
@@ -13418,9 +12590,6 @@
       <c r="B1155">
         <v>2000</v>
       </c>
-      <c r="C1155" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
@@ -13429,9 +12598,6 @@
       <c r="B1156">
         <v>2001</v>
       </c>
-      <c r="C1156" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
@@ -13440,9 +12606,6 @@
       <c r="B1157">
         <v>2002</v>
       </c>
-      <c r="C1157" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
@@ -13462,9 +12625,6 @@
       <c r="B1159">
         <v>2004</v>
       </c>
-      <c r="C1159" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
@@ -13473,9 +12633,6 @@
       <c r="B1160">
         <v>2005</v>
       </c>
-      <c r="C1160" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
@@ -13495,9 +12652,6 @@
       <c r="B1162">
         <v>2007</v>
       </c>
-      <c r="C1162" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
@@ -13506,9 +12660,6 @@
       <c r="B1163">
         <v>2008</v>
       </c>
-      <c r="C1163" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
@@ -13517,9 +12668,6 @@
       <c r="B1164">
         <v>2009</v>
       </c>
-      <c r="C1164" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
@@ -13605,9 +12753,6 @@
       <c r="B1172">
         <v>1999</v>
       </c>
-      <c r="C1172" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
@@ -13616,9 +12761,6 @@
       <c r="B1173">
         <v>2000</v>
       </c>
-      <c r="C1173" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
@@ -13627,9 +12769,6 @@
       <c r="B1174">
         <v>2001</v>
       </c>
-      <c r="C1174" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
@@ -13638,9 +12777,6 @@
       <c r="B1175">
         <v>2002</v>
       </c>
-      <c r="C1175" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
@@ -13649,9 +12785,6 @@
       <c r="B1176">
         <v>2003</v>
       </c>
-      <c r="C1176" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
@@ -13660,9 +12793,6 @@
       <c r="B1177">
         <v>2004</v>
       </c>
-      <c r="C1177" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
@@ -13682,9 +12812,6 @@
       <c r="B1179">
         <v>2006</v>
       </c>
-      <c r="C1179" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
@@ -13693,9 +12820,6 @@
       <c r="B1180">
         <v>2007</v>
       </c>
-      <c r="C1180" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
@@ -13704,9 +12828,6 @@
       <c r="B1181">
         <v>2008</v>
       </c>
-      <c r="C1181" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
@@ -13715,9 +12836,6 @@
       <c r="B1182">
         <v>2009</v>
       </c>
-      <c r="C1182" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
@@ -13726,9 +12844,6 @@
       <c r="B1183">
         <v>2010</v>
       </c>
-      <c r="C1183" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
@@ -13737,9 +12852,6 @@
       <c r="B1184">
         <v>2011</v>
       </c>
-      <c r="C1184" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
@@ -13748,9 +12860,6 @@
       <c r="B1185">
         <v>2012</v>
       </c>
-      <c r="C1185" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
@@ -13759,9 +12868,6 @@
       <c r="B1186">
         <v>2013</v>
       </c>
-      <c r="C1186" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
@@ -13781,9 +12887,6 @@
       <c r="B1188">
         <v>2015</v>
       </c>
-      <c r="C1188" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
@@ -13792,9 +12895,6 @@
       <c r="B1189">
         <v>2016</v>
       </c>
-      <c r="C1189" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
@@ -13803,9 +12903,6 @@
       <c r="B1190">
         <v>1999</v>
       </c>
-      <c r="C1190" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
@@ -13814,9 +12911,6 @@
       <c r="B1191">
         <v>2000</v>
       </c>
-      <c r="C1191" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
@@ -13825,9 +12919,6 @@
       <c r="B1192">
         <v>2001</v>
       </c>
-      <c r="C1192" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
@@ -13836,9 +12927,6 @@
       <c r="B1193">
         <v>2002</v>
       </c>
-      <c r="C1193" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
@@ -13847,9 +12935,6 @@
       <c r="B1194">
         <v>2003</v>
       </c>
-      <c r="C1194" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
@@ -13858,9 +12943,6 @@
       <c r="B1195">
         <v>2004</v>
       </c>
-      <c r="C1195" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
@@ -13869,9 +12951,6 @@
       <c r="B1196">
         <v>2005</v>
       </c>
-      <c r="C1196" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
@@ -13902,9 +12981,6 @@
       <c r="B1199">
         <v>2008</v>
       </c>
-      <c r="C1199" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
@@ -13935,9 +13011,6 @@
       <c r="B1202">
         <v>2011</v>
       </c>
-      <c r="C1202" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
@@ -13946,9 +13019,6 @@
       <c r="B1203">
         <v>2012</v>
       </c>
-      <c r="C1203" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
@@ -13957,9 +13027,6 @@
       <c r="B1204">
         <v>2013</v>
       </c>
-      <c r="C1204" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
@@ -13968,9 +13035,6 @@
       <c r="B1205">
         <v>2014</v>
       </c>
-      <c r="C1205" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
@@ -13979,9 +13043,6 @@
       <c r="B1206">
         <v>2015</v>
       </c>
-      <c r="C1206" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
@@ -13990,9 +13051,6 @@
       <c r="B1207">
         <v>2016</v>
       </c>
-      <c r="C1207" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
@@ -14001,9 +13059,6 @@
       <c r="B1208">
         <v>1999</v>
       </c>
-      <c r="C1208" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
@@ -14012,9 +13067,6 @@
       <c r="B1209">
         <v>2000</v>
       </c>
-      <c r="C1209" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
@@ -14023,9 +13075,6 @@
       <c r="B1210">
         <v>2001</v>
       </c>
-      <c r="C1210" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
@@ -14034,9 +13083,6 @@
       <c r="B1211">
         <v>2002</v>
       </c>
-      <c r="C1211" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
@@ -14045,9 +13091,6 @@
       <c r="B1212">
         <v>2003</v>
       </c>
-      <c r="C1212" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
@@ -14056,9 +13099,6 @@
       <c r="B1213">
         <v>2004</v>
       </c>
-      <c r="C1213" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
@@ -14067,9 +13107,6 @@
       <c r="B1214">
         <v>2005</v>
       </c>
-      <c r="C1214" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
@@ -14078,9 +13115,6 @@
       <c r="B1215">
         <v>2006</v>
       </c>
-      <c r="C1215" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
@@ -14100,9 +13134,6 @@
       <c r="B1217">
         <v>2008</v>
       </c>
-      <c r="C1217" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
@@ -14111,9 +13142,6 @@
       <c r="B1218">
         <v>2009</v>
       </c>
-      <c r="C1218" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
@@ -14155,9 +13183,6 @@
       <c r="B1222">
         <v>2013</v>
       </c>
-      <c r="C1222" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
@@ -14166,9 +13191,6 @@
       <c r="B1223">
         <v>2014</v>
       </c>
-      <c r="C1223" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
@@ -14199,9 +13221,6 @@
       <c r="B1226">
         <v>1999</v>
       </c>
-      <c r="C1226" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
@@ -14221,9 +13240,6 @@
       <c r="B1228">
         <v>2001</v>
       </c>
-      <c r="C1228" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
@@ -14232,9 +13248,6 @@
       <c r="B1229">
         <v>2002</v>
       </c>
-      <c r="C1229" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
@@ -14243,9 +13256,6 @@
       <c r="B1230">
         <v>2003</v>
       </c>
-      <c r="C1230" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
@@ -14265,9 +13275,6 @@
       <c r="B1232">
         <v>2005</v>
       </c>
-      <c r="C1232" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
@@ -14276,9 +13283,6 @@
       <c r="B1233">
         <v>2006</v>
       </c>
-      <c r="C1233" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
@@ -14331,9 +13335,6 @@
       <c r="B1238">
         <v>2011</v>
       </c>
-      <c r="C1238" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
@@ -14408,9 +13409,6 @@
       <c r="B1245">
         <v>2000</v>
       </c>
-      <c r="C1245" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
@@ -14452,9 +13450,6 @@
       <c r="B1249">
         <v>2004</v>
       </c>
-      <c r="C1249" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
@@ -14584,9 +13579,6 @@
       <c r="B1261">
         <v>2016</v>
       </c>
-      <c r="C1261" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
@@ -14793,9 +13785,6 @@
       <c r="B1280">
         <v>1999</v>
       </c>
-      <c r="C1280" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
@@ -14815,9 +13804,6 @@
       <c r="B1282">
         <v>2001</v>
       </c>
-      <c r="C1282" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
@@ -14826,9 +13812,6 @@
       <c r="B1283">
         <v>2002</v>
       </c>
-      <c r="C1283" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
@@ -14837,9 +13820,6 @@
       <c r="B1284">
         <v>2003</v>
       </c>
-      <c r="C1284" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
@@ -14859,9 +13839,6 @@
       <c r="B1286">
         <v>2005</v>
       </c>
-      <c r="C1286" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
@@ -14870,9 +13847,6 @@
       <c r="B1287">
         <v>2006</v>
       </c>
-      <c r="C1287" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
@@ -14892,9 +13866,6 @@
       <c r="B1289">
         <v>2008</v>
       </c>
-      <c r="C1289" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
@@ -14925,9 +13896,6 @@
       <c r="B1292">
         <v>2011</v>
       </c>
-      <c r="C1292" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
@@ -14936,9 +13904,6 @@
       <c r="B1293">
         <v>2012</v>
       </c>
-      <c r="C1293" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
@@ -14991,9 +13956,6 @@
       <c r="B1298">
         <v>1999</v>
       </c>
-      <c r="C1298" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
@@ -15002,9 +13964,6 @@
       <c r="B1299">
         <v>2000</v>
       </c>
-      <c r="C1299" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
@@ -15013,9 +13972,6 @@
       <c r="B1300">
         <v>2001</v>
       </c>
-      <c r="C1300" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
@@ -15035,9 +13991,6 @@
       <c r="B1302">
         <v>2003</v>
       </c>
-      <c r="C1302" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
@@ -15046,9 +13999,6 @@
       <c r="B1303">
         <v>2004</v>
       </c>
-      <c r="C1303" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
@@ -15068,9 +14018,6 @@
       <c r="B1305">
         <v>2006</v>
       </c>
-      <c r="C1305" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
@@ -15112,9 +14059,6 @@
       <c r="B1309">
         <v>2010</v>
       </c>
-      <c r="C1309" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
@@ -15123,9 +14067,6 @@
       <c r="B1310">
         <v>2011</v>
       </c>
-      <c r="C1310" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
@@ -15145,9 +14086,6 @@
       <c r="B1312">
         <v>2013</v>
       </c>
-      <c r="C1312" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
@@ -15156,9 +14094,6 @@
       <c r="B1313">
         <v>2014</v>
       </c>
-      <c r="C1313" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
@@ -15189,9 +14124,6 @@
       <c r="B1316">
         <v>1999</v>
       </c>
-      <c r="C1316" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
@@ -15233,9 +14165,6 @@
       <c r="B1320">
         <v>2003</v>
       </c>
-      <c r="C1320" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
@@ -15255,9 +14184,6 @@
       <c r="B1322">
         <v>2005</v>
       </c>
-      <c r="C1322" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
@@ -15321,9 +14247,6 @@
       <c r="B1328">
         <v>2011</v>
       </c>
-      <c r="C1328" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
@@ -15343,9 +14266,6 @@
       <c r="B1330">
         <v>2013</v>
       </c>
-      <c r="C1330" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
@@ -15354,9 +14274,6 @@
       <c r="B1331">
         <v>2014</v>
       </c>
-      <c r="C1331" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
@@ -15376,9 +14293,6 @@
       <c r="B1333">
         <v>2016</v>
       </c>
-      <c r="C1333" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
@@ -15387,9 +14301,6 @@
       <c r="B1334">
         <v>1999</v>
       </c>
-      <c r="C1334" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
@@ -15398,9 +14309,6 @@
       <c r="B1335">
         <v>2000</v>
       </c>
-      <c r="C1335" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
@@ -15409,9 +14317,6 @@
       <c r="B1336">
         <v>2001</v>
       </c>
-      <c r="C1336" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
@@ -15420,9 +14325,6 @@
       <c r="B1337">
         <v>2002</v>
       </c>
-      <c r="C1337" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
@@ -15431,9 +14333,6 @@
       <c r="B1338">
         <v>2003</v>
       </c>
-      <c r="C1338" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
@@ -15442,9 +14341,6 @@
       <c r="B1339">
         <v>2004</v>
       </c>
-      <c r="C1339" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
@@ -15453,9 +14349,6 @@
       <c r="B1340">
         <v>2005</v>
       </c>
-      <c r="C1340" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
@@ -15464,9 +14357,6 @@
       <c r="B1341">
         <v>2006</v>
       </c>
-      <c r="C1341" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
@@ -15475,9 +14365,6 @@
       <c r="B1342">
         <v>2007</v>
       </c>
-      <c r="C1342" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
@@ -15497,9 +14384,6 @@
       <c r="B1344">
         <v>2009</v>
       </c>
-      <c r="C1344" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
@@ -15508,9 +14392,6 @@
       <c r="B1345">
         <v>2010</v>
       </c>
-      <c r="C1345" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
@@ -15519,9 +14400,6 @@
       <c r="B1346">
         <v>2011</v>
       </c>
-      <c r="C1346" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
@@ -15530,9 +14408,6 @@
       <c r="B1347">
         <v>2012</v>
       </c>
-      <c r="C1347" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
@@ -15541,9 +14416,6 @@
       <c r="B1348">
         <v>2013</v>
       </c>
-      <c r="C1348" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
@@ -15552,9 +14424,6 @@
       <c r="B1349">
         <v>2014</v>
       </c>
-      <c r="C1349" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
@@ -15563,9 +14432,6 @@
       <c r="B1350">
         <v>2015</v>
       </c>
-      <c r="C1350" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
@@ -15574,9 +14440,6 @@
       <c r="B1351">
         <v>2016</v>
       </c>
-      <c r="C1351" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
@@ -15618,9 +14481,6 @@
       <c r="B1355">
         <v>2002</v>
       </c>
-      <c r="C1355" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
@@ -15629,9 +14489,6 @@
       <c r="B1356">
         <v>2003</v>
       </c>
-      <c r="C1356" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
@@ -15662,9 +14519,6 @@
       <c r="B1359">
         <v>2006</v>
       </c>
-      <c r="C1359" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
@@ -15728,9 +14582,6 @@
       <c r="B1365">
         <v>2012</v>
       </c>
-      <c r="C1365" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
@@ -15750,9 +14601,6 @@
       <c r="B1367">
         <v>2014</v>
       </c>
-      <c r="C1367" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
@@ -15783,9 +14631,6 @@
       <c r="B1370">
         <v>1999</v>
       </c>
-      <c r="C1370" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
@@ -15794,9 +14639,6 @@
       <c r="B1371">
         <v>2000</v>
       </c>
-      <c r="C1371" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
@@ -15805,9 +14647,6 @@
       <c r="B1372">
         <v>2001</v>
       </c>
-      <c r="C1372" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
@@ -15816,9 +14655,6 @@
       <c r="B1373">
         <v>2002</v>
       </c>
-      <c r="C1373" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
@@ -15827,9 +14663,6 @@
       <c r="B1374">
         <v>2003</v>
       </c>
-      <c r="C1374" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
@@ -15838,9 +14671,6 @@
       <c r="B1375">
         <v>2004</v>
       </c>
-      <c r="C1375" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
@@ -15849,184 +14679,133 @@
       <c r="B1376">
         <v>2005</v>
       </c>
-      <c r="C1376" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
         <v>75</v>
       </c>
       <c r="B1377">
         <v>2006</v>
       </c>
-      <c r="C1377" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
         <v>75</v>
       </c>
       <c r="B1378">
         <v>2007</v>
       </c>
-      <c r="C1378" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
         <v>75</v>
       </c>
       <c r="B1379">
         <v>2008</v>
       </c>
-      <c r="C1379" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
         <v>75</v>
       </c>
       <c r="B1380">
         <v>2009</v>
       </c>
-      <c r="C1380" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
         <v>75</v>
       </c>
       <c r="B1381">
         <v>2010</v>
       </c>
-      <c r="C1381" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
         <v>75</v>
       </c>
       <c r="B1382">
         <v>2011</v>
       </c>
-      <c r="C1382" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
         <v>75</v>
       </c>
       <c r="B1383">
         <v>2012</v>
       </c>
-      <c r="C1383" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
         <v>75</v>
       </c>
       <c r="B1384">
         <v>2013</v>
       </c>
-      <c r="C1384" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
         <v>75</v>
       </c>
       <c r="B1385">
         <v>2014</v>
       </c>
-      <c r="C1385" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
         <v>75</v>
       </c>
       <c r="B1386">
         <v>2015</v>
       </c>
-      <c r="C1386" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
         <v>75</v>
       </c>
       <c r="B1387">
         <v>2016</v>
       </c>
-      <c r="C1387" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
         <v>76</v>
       </c>
       <c r="B1388">
         <v>1999</v>
       </c>
-      <c r="C1388" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
         <v>76</v>
       </c>
       <c r="B1389">
         <v>2000</v>
       </c>
-      <c r="C1389" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
         <v>76</v>
       </c>
       <c r="B1390">
         <v>2001</v>
       </c>
-      <c r="C1390" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
         <v>76</v>
       </c>
       <c r="B1391">
         <v>2002</v>
       </c>
-      <c r="C1391" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
         <v>76</v>
       </c>
       <c r="B1392">
         <v>2003</v>
-      </c>
-      <c r="C1392" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="1393" spans="1:3" x14ac:dyDescent="0.2">
@@ -16036,9 +14815,6 @@
       <c r="B1393">
         <v>2004</v>
       </c>
-      <c r="C1393" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
@@ -16058,9 +14834,6 @@
       <c r="B1395">
         <v>2006</v>
       </c>
-      <c r="C1395" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
@@ -16069,9 +14842,6 @@
       <c r="B1396">
         <v>2007</v>
       </c>
-      <c r="C1396" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
@@ -16080,9 +14850,6 @@
       <c r="B1397">
         <v>2008</v>
       </c>
-      <c r="C1397" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
@@ -16091,9 +14858,6 @@
       <c r="B1398">
         <v>2009</v>
       </c>
-      <c r="C1398" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
@@ -16102,9 +14866,6 @@
       <c r="B1399">
         <v>2010</v>
       </c>
-      <c r="C1399" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
@@ -16113,9 +14874,6 @@
       <c r="B1400">
         <v>2011</v>
       </c>
-      <c r="C1400" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
@@ -16124,9 +14882,6 @@
       <c r="B1401">
         <v>2012</v>
       </c>
-      <c r="C1401" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
@@ -16135,9 +14890,6 @@
       <c r="B1402">
         <v>2013</v>
       </c>
-      <c r="C1402" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
@@ -16146,9 +14898,6 @@
       <c r="B1403">
         <v>2014</v>
       </c>
-      <c r="C1403" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
@@ -16157,9 +14906,6 @@
       <c r="B1404">
         <v>2015</v>
       </c>
-      <c r="C1404" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
@@ -16179,9 +14925,6 @@
       <c r="B1406">
         <v>1999</v>
       </c>
-      <c r="C1406" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
@@ -16190,9 +14933,6 @@
       <c r="B1407">
         <v>2000</v>
       </c>
-      <c r="C1407" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
@@ -16212,9 +14952,6 @@
       <c r="B1409">
         <v>2002</v>
       </c>
-      <c r="C1409" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
@@ -16234,9 +14971,6 @@
       <c r="B1411">
         <v>2004</v>
       </c>
-      <c r="C1411" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
@@ -16245,9 +14979,6 @@
       <c r="B1412">
         <v>2005</v>
       </c>
-      <c r="C1412" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
@@ -16256,9 +14987,6 @@
       <c r="B1413">
         <v>2006</v>
       </c>
-      <c r="C1413" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
@@ -16267,9 +14995,6 @@
       <c r="B1414">
         <v>2007</v>
       </c>
-      <c r="C1414" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
@@ -16278,9 +15003,6 @@
       <c r="B1415">
         <v>2008</v>
       </c>
-      <c r="C1415" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
@@ -16311,9 +15033,6 @@
       <c r="B1418">
         <v>2011</v>
       </c>
-      <c r="C1418" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
@@ -16355,9 +15074,6 @@
       <c r="B1422">
         <v>2015</v>
       </c>
-      <c r="C1422" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
@@ -16366,9 +15082,6 @@
       <c r="B1423">
         <v>2016</v>
       </c>
-      <c r="C1423" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
@@ -16377,9 +15090,6 @@
       <c r="B1424">
         <v>1999</v>
       </c>
-      <c r="C1424" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
@@ -16388,9 +15098,6 @@
       <c r="B1425">
         <v>2000</v>
       </c>
-      <c r="C1425" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
@@ -16410,9 +15117,6 @@
       <c r="B1427">
         <v>2002</v>
       </c>
-      <c r="C1427" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
@@ -16432,9 +15136,6 @@
       <c r="B1429">
         <v>2004</v>
       </c>
-      <c r="C1429" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
@@ -16454,9 +15155,6 @@
       <c r="B1431">
         <v>2006</v>
       </c>
-      <c r="C1431" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
@@ -16465,9 +15163,6 @@
       <c r="B1432">
         <v>2007</v>
       </c>
-      <c r="C1432" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
@@ -16476,9 +15171,6 @@
       <c r="B1433">
         <v>2008</v>
       </c>
-      <c r="C1433" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
@@ -16487,9 +15179,6 @@
       <c r="B1434">
         <v>2009</v>
       </c>
-      <c r="C1434" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
@@ -16498,9 +15187,6 @@
       <c r="B1435">
         <v>2010</v>
       </c>
-      <c r="C1435" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
@@ -16509,9 +15195,6 @@
       <c r="B1436">
         <v>2011</v>
       </c>
-      <c r="C1436" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
@@ -16520,9 +15203,6 @@
       <c r="B1437">
         <v>2012</v>
       </c>
-      <c r="C1437" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
@@ -16531,9 +15211,6 @@
       <c r="B1438">
         <v>2013</v>
       </c>
-      <c r="C1438" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
@@ -16542,9 +15219,6 @@
       <c r="B1439">
         <v>2014</v>
       </c>
-      <c r="C1439" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
@@ -16553,9 +15227,6 @@
       <c r="B1440">
         <v>2015</v>
       </c>
-      <c r="C1440" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
@@ -16564,9 +15235,6 @@
       <c r="B1441">
         <v>2016</v>
       </c>
-      <c r="C1441" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
@@ -16575,9 +15243,6 @@
       <c r="B1442">
         <v>1999</v>
       </c>
-      <c r="C1442" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
@@ -16586,9 +15251,6 @@
       <c r="B1443">
         <v>2000</v>
       </c>
-      <c r="C1443" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
@@ -16597,9 +15259,6 @@
       <c r="B1444">
         <v>2001</v>
       </c>
-      <c r="C1444" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
@@ -16608,9 +15267,6 @@
       <c r="B1445">
         <v>2002</v>
       </c>
-      <c r="C1445" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
@@ -16619,9 +15275,6 @@
       <c r="B1446">
         <v>2003</v>
       </c>
-      <c r="C1446" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
@@ -16641,9 +15294,6 @@
       <c r="B1448">
         <v>2005</v>
       </c>
-      <c r="C1448" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
@@ -16663,9 +15313,6 @@
       <c r="B1450">
         <v>2007</v>
       </c>
-      <c r="C1450" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
@@ -16685,9 +15332,6 @@
       <c r="B1452">
         <v>2009</v>
       </c>
-      <c r="C1452" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
@@ -16740,9 +15384,6 @@
       <c r="B1457">
         <v>2014</v>
       </c>
-      <c r="C1457" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
@@ -16795,9 +15436,6 @@
       <c r="B1462">
         <v>2001</v>
       </c>
-      <c r="C1462" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
@@ -16806,9 +15444,6 @@
       <c r="B1463">
         <v>2002</v>
       </c>
-      <c r="C1463" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
@@ -16916,9 +15551,6 @@
       <c r="B1473">
         <v>2012</v>
       </c>
-      <c r="C1473" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
@@ -16960,9 +15592,6 @@
       <c r="B1477">
         <v>2016</v>
       </c>
-      <c r="C1477" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1478" t="s">
@@ -16971,9 +15600,6 @@
       <c r="B1478">
         <v>1999</v>
       </c>
-      <c r="C1478" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
@@ -16982,9 +15608,6 @@
       <c r="B1479">
         <v>2000</v>
       </c>
-      <c r="C1479" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
@@ -16993,9 +15616,6 @@
       <c r="B1480">
         <v>2001</v>
       </c>
-      <c r="C1480" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
@@ -17004,9 +15624,6 @@
       <c r="B1481">
         <v>2002</v>
       </c>
-      <c r="C1481" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
@@ -17026,9 +15643,6 @@
       <c r="B1483">
         <v>2004</v>
       </c>
-      <c r="C1483" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
@@ -17037,9 +15651,6 @@
       <c r="B1484">
         <v>2005</v>
       </c>
-      <c r="C1484" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
@@ -17048,9 +15659,6 @@
       <c r="B1485">
         <v>2006</v>
       </c>
-      <c r="C1485" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
@@ -17070,9 +15678,6 @@
       <c r="B1487">
         <v>2008</v>
       </c>
-      <c r="C1487" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
@@ -17147,9 +15752,6 @@
       <c r="B1494">
         <v>2015</v>
       </c>
-      <c r="C1494" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
@@ -17191,9 +15793,6 @@
       <c r="B1498">
         <v>2001</v>
       </c>
-      <c r="C1498" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
@@ -17763,9 +16362,6 @@
       <c r="B1550">
         <v>1999</v>
       </c>
-      <c r="C1550" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
@@ -17774,9 +16370,6 @@
       <c r="B1551">
         <v>2000</v>
       </c>
-      <c r="C1551" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
@@ -17785,9 +16378,6 @@
       <c r="B1552">
         <v>2001</v>
       </c>
-      <c r="C1552" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
@@ -17796,9 +16386,6 @@
       <c r="B1553">
         <v>2002</v>
       </c>
-      <c r="C1553" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
@@ -17807,9 +16394,6 @@
       <c r="B1554">
         <v>2003</v>
       </c>
-      <c r="C1554" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1555" t="s">
@@ -17818,9 +16402,6 @@
       <c r="B1555">
         <v>2004</v>
       </c>
-      <c r="C1555" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
@@ -17829,9 +16410,6 @@
       <c r="B1556">
         <v>2005</v>
       </c>
-      <c r="C1556" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
@@ -17840,9 +16418,6 @@
       <c r="B1557">
         <v>2006</v>
       </c>
-      <c r="C1557" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
@@ -17851,9 +16426,6 @@
       <c r="B1558">
         <v>2007</v>
       </c>
-      <c r="C1558" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
@@ -17862,9 +16434,6 @@
       <c r="B1559">
         <v>2008</v>
       </c>
-      <c r="C1559" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
@@ -17873,9 +16442,6 @@
       <c r="B1560">
         <v>2009</v>
       </c>
-      <c r="C1560" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
@@ -17884,9 +16450,6 @@
       <c r="B1561">
         <v>2010</v>
       </c>
-      <c r="C1561" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
@@ -17895,9 +16458,6 @@
       <c r="B1562">
         <v>2011</v>
       </c>
-      <c r="C1562" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
@@ -17906,9 +16466,6 @@
       <c r="B1563">
         <v>2012</v>
       </c>
-      <c r="C1563" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
@@ -17917,9 +16474,6 @@
       <c r="B1564">
         <v>2013</v>
       </c>
-      <c r="C1564" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
@@ -17928,9 +16482,6 @@
       <c r="B1565">
         <v>2014</v>
       </c>
-      <c r="C1565" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
@@ -17939,9 +16490,6 @@
       <c r="B1566">
         <v>2015</v>
       </c>
-      <c r="C1566" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
@@ -17950,9 +16498,6 @@
       <c r="B1567">
         <v>2016</v>
       </c>
-      <c r="C1567" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
@@ -18357,9 +16902,6 @@
       <c r="B1604">
         <v>1999</v>
       </c>
-      <c r="C1604" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1605" t="s">
@@ -18379,9 +16921,6 @@
       <c r="B1606">
         <v>2001</v>
       </c>
-      <c r="C1606" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1607" t="s">
@@ -18390,9 +16929,6 @@
       <c r="B1607">
         <v>2002</v>
       </c>
-      <c r="C1607" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1608" t="s">
@@ -18401,9 +16937,6 @@
       <c r="B1608">
         <v>2003</v>
       </c>
-      <c r="C1608" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1609" t="s">
@@ -18412,9 +16945,6 @@
       <c r="B1609">
         <v>2004</v>
       </c>
-      <c r="C1609" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1610" t="s">
@@ -18423,9 +16953,6 @@
       <c r="B1610">
         <v>2005</v>
       </c>
-      <c r="C1610" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1611" t="s">
@@ -18434,9 +16961,6 @@
       <c r="B1611">
         <v>2006</v>
       </c>
-      <c r="C1611" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1612" t="s">
@@ -18445,9 +16969,6 @@
       <c r="B1612">
         <v>2007</v>
       </c>
-      <c r="C1612" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1613" t="s">
@@ -18456,9 +16977,6 @@
       <c r="B1613">
         <v>2008</v>
       </c>
-      <c r="C1613" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1614" t="s">
@@ -18478,9 +16996,6 @@
       <c r="B1615">
         <v>2010</v>
       </c>
-      <c r="C1615" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1616" t="s">
@@ -18489,9 +17004,6 @@
       <c r="B1616">
         <v>2011</v>
       </c>
-      <c r="C1616" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1617" t="s">
@@ -18522,9 +17034,6 @@
       <c r="B1619">
         <v>2014</v>
       </c>
-      <c r="C1619" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1620" t="s">
@@ -18544,9 +17053,6 @@
       <c r="B1621">
         <v>2016</v>
       </c>
-      <c r="C1621" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1622" t="s">
@@ -18951,9 +17457,6 @@
       <c r="B1658">
         <v>1999</v>
       </c>
-      <c r="C1658" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1659" t="s">
@@ -18962,9 +17465,6 @@
       <c r="B1659">
         <v>2000</v>
       </c>
-      <c r="C1659" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1660" t="s">
@@ -18973,9 +17473,6 @@
       <c r="B1660">
         <v>2001</v>
       </c>
-      <c r="C1660" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1661" t="s">
@@ -18984,9 +17481,6 @@
       <c r="B1661">
         <v>2002</v>
       </c>
-      <c r="C1661" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1662" t="s">
@@ -18995,9 +17489,6 @@
       <c r="B1662">
         <v>2003</v>
       </c>
-      <c r="C1662" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1663" t="s">
@@ -19006,9 +17497,6 @@
       <c r="B1663">
         <v>2004</v>
       </c>
-      <c r="C1663" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1664" t="s">
@@ -19017,9 +17505,6 @@
       <c r="B1664">
         <v>2005</v>
       </c>
-      <c r="C1664" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1665" t="s">
@@ -19028,9 +17513,6 @@
       <c r="B1665">
         <v>2006</v>
       </c>
-      <c r="C1665" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1666" t="s">
@@ -19039,9 +17521,6 @@
       <c r="B1666">
         <v>2007</v>
       </c>
-      <c r="C1666" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1667" t="s">
@@ -19050,9 +17529,6 @@
       <c r="B1667">
         <v>2008</v>
       </c>
-      <c r="C1667" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1668" t="s">
@@ -19061,9 +17537,6 @@
       <c r="B1668">
         <v>2009</v>
       </c>
-      <c r="C1668" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1669" t="s">
@@ -19083,9 +17556,6 @@
       <c r="B1670">
         <v>2011</v>
       </c>
-      <c r="C1670" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1671" t="s">
@@ -19094,9 +17564,6 @@
       <c r="B1671">
         <v>2012</v>
       </c>
-      <c r="C1671" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1672" t="s">
@@ -19105,9 +17572,6 @@
       <c r="B1672">
         <v>2013</v>
       </c>
-      <c r="C1672" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1673" t="s">
@@ -19116,9 +17580,6 @@
       <c r="B1673">
         <v>2014</v>
       </c>
-      <c r="C1673" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1674" t="s">
@@ -19127,9 +17588,6 @@
       <c r="B1674">
         <v>2015</v>
       </c>
-      <c r="C1674" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1675" t="s">
@@ -19138,9 +17596,6 @@
       <c r="B1675">
         <v>2016</v>
       </c>
-      <c r="C1675" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1676" t="s">
@@ -19149,9 +17604,6 @@
       <c r="B1676">
         <v>1999</v>
       </c>
-      <c r="C1676" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1677" t="s">
@@ -19160,9 +17612,6 @@
       <c r="B1677">
         <v>2000</v>
       </c>
-      <c r="C1677" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1678" t="s">
@@ -19171,9 +17620,6 @@
       <c r="B1678">
         <v>2001</v>
       </c>
-      <c r="C1678" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1679" t="s">
@@ -19193,9 +17639,6 @@
       <c r="B1680">
         <v>2003</v>
       </c>
-      <c r="C1680" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1681" t="s">
@@ -19226,9 +17669,6 @@
       <c r="B1683">
         <v>2006</v>
       </c>
-      <c r="C1683" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1684" t="s">
@@ -19237,9 +17677,6 @@
       <c r="B1684">
         <v>2007</v>
       </c>
-      <c r="C1684" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1685" t="s">
@@ -19248,9 +17685,6 @@
       <c r="B1685">
         <v>2008</v>
       </c>
-      <c r="C1685" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1686" t="s">
@@ -19281,9 +17715,6 @@
       <c r="B1688">
         <v>2011</v>
       </c>
-      <c r="C1688" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1689" t="s">
@@ -19303,9 +17734,6 @@
       <c r="B1690">
         <v>2013</v>
       </c>
-      <c r="C1690" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1691" t="s">
@@ -19314,9 +17742,6 @@
       <c r="B1691">
         <v>2014</v>
       </c>
-      <c r="C1691" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1692" t="s">
@@ -19325,9 +17750,6 @@
       <c r="B1692">
         <v>2015</v>
       </c>
-      <c r="C1692" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1693" t="s">
@@ -19380,9 +17802,6 @@
       <c r="B1697">
         <v>2002</v>
       </c>
-      <c r="C1697" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1698" t="s">
@@ -19545,9 +17964,6 @@
       <c r="B1712">
         <v>1999</v>
       </c>
-      <c r="C1712" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1713" t="s">
@@ -19589,9 +18005,6 @@
       <c r="B1716">
         <v>2003</v>
       </c>
-      <c r="C1716" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1717" t="s">
@@ -19633,9 +18046,6 @@
       <c r="B1720">
         <v>2007</v>
       </c>
-      <c r="C1720" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1721" t="s">
@@ -19655,9 +18065,6 @@
       <c r="B1722">
         <v>2009</v>
       </c>
-      <c r="C1722" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1723" t="s">
@@ -19743,9 +18150,6 @@
       <c r="B1730">
         <v>1999</v>
       </c>
-      <c r="C1730" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1731" t="s">
@@ -19754,9 +18158,6 @@
       <c r="B1731">
         <v>2000</v>
       </c>
-      <c r="C1731" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1732" t="s">
@@ -19765,9 +18166,6 @@
       <c r="B1732">
         <v>2001</v>
       </c>
-      <c r="C1732" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1733" t="s">
@@ -19776,9 +18174,6 @@
       <c r="B1733">
         <v>2002</v>
       </c>
-      <c r="C1733" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1734" t="s">
@@ -19787,9 +18182,6 @@
       <c r="B1734">
         <v>2003</v>
       </c>
-      <c r="C1734" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1735" t="s">
@@ -19798,9 +18190,6 @@
       <c r="B1735">
         <v>2004</v>
       </c>
-      <c r="C1735" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1736" t="s">
@@ -19809,9 +18198,6 @@
       <c r="B1736">
         <v>2005</v>
       </c>
-      <c r="C1736" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1737" t="s">
@@ -19820,9 +18206,6 @@
       <c r="B1737">
         <v>2006</v>
       </c>
-      <c r="C1737" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1738" t="s">
@@ -19831,9 +18214,6 @@
       <c r="B1738">
         <v>2007</v>
       </c>
-      <c r="C1738" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1739" t="s">
@@ -19853,9 +18233,6 @@
       <c r="B1740">
         <v>2009</v>
       </c>
-      <c r="C1740" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1741" t="s">
@@ -19864,9 +18241,6 @@
       <c r="B1741">
         <v>2010</v>
       </c>
-      <c r="C1741" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1742" t="s">
@@ -19875,9 +18249,6 @@
       <c r="B1742">
         <v>2011</v>
       </c>
-      <c r="C1742" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1743" t="s">
@@ -19919,9 +18290,6 @@
       <c r="B1746">
         <v>2015</v>
       </c>
-      <c r="C1746" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1747" t="s">
@@ -19930,9 +18298,6 @@
       <c r="B1747">
         <v>2016</v>
       </c>
-      <c r="C1747" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1748" t="s">
@@ -19941,9 +18306,6 @@
       <c r="B1748">
         <v>1999</v>
       </c>
-      <c r="C1748" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1749" t="s">
@@ -19963,9 +18325,6 @@
       <c r="B1750">
         <v>2001</v>
       </c>
-      <c r="C1750" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1751" t="s">
@@ -19974,9 +18333,6 @@
       <c r="B1751">
         <v>2002</v>
       </c>
-      <c r="C1751" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1752" t="s">
@@ -19985,9 +18341,6 @@
       <c r="B1752">
         <v>2003</v>
       </c>
-      <c r="C1752" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1753" t="s">
@@ -19996,9 +18349,6 @@
       <c r="B1753">
         <v>2004</v>
       </c>
-      <c r="C1753" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1754" t="s">
@@ -20007,9 +18357,6 @@
       <c r="B1754">
         <v>2005</v>
       </c>
-      <c r="C1754" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1755" t="s">
@@ -20029,9 +18376,6 @@
       <c r="B1756">
         <v>2007</v>
       </c>
-      <c r="C1756" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1757" t="s">
@@ -20051,9 +18395,6 @@
       <c r="B1758">
         <v>2009</v>
       </c>
-      <c r="C1758" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1759" t="s">
@@ -20062,9 +18403,6 @@
       <c r="B1759">
         <v>2010</v>
       </c>
-      <c r="C1759" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1760" t="s">
@@ -20084,9 +18422,6 @@
       <c r="B1761">
         <v>2012</v>
       </c>
-      <c r="C1761" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1762" t="s">
@@ -20095,9 +18430,6 @@
       <c r="B1762">
         <v>2013</v>
       </c>
-      <c r="C1762" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1763" t="s">
@@ -20106,9 +18438,6 @@
       <c r="B1763">
         <v>2014</v>
       </c>
-      <c r="C1763" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1764" t="s">
@@ -20117,9 +18446,6 @@
       <c r="B1764">
         <v>2015</v>
       </c>
-      <c r="C1764" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1765" t="s">
@@ -20128,9 +18454,6 @@
       <c r="B1765">
         <v>2016</v>
       </c>
-      <c r="C1765" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1766" t="s">
@@ -20194,9 +18517,6 @@
       <c r="B1771">
         <v>2004</v>
       </c>
-      <c r="C1771" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1772" t="s">
@@ -20227,9 +18547,6 @@
       <c r="B1774">
         <v>2007</v>
       </c>
-      <c r="C1774" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1775" t="s">
@@ -20238,9 +18555,6 @@
       <c r="B1775">
         <v>2008</v>
       </c>
-      <c r="C1775" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1776" t="s">
@@ -20249,9 +18563,6 @@
       <c r="B1776">
         <v>2009</v>
       </c>
-      <c r="C1776" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1777" t="s">
@@ -20304,9 +18615,6 @@
       <c r="B1781">
         <v>2014</v>
       </c>
-      <c r="C1781" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1782" t="s">
@@ -20315,9 +18623,6 @@
       <c r="B1782">
         <v>2015</v>
       </c>
-      <c r="C1782" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1783" t="s">
@@ -20337,9 +18642,6 @@
       <c r="B1784">
         <v>1999</v>
       </c>
-      <c r="C1784" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1785" t="s">
@@ -20359,9 +18661,6 @@
       <c r="B1786">
         <v>2001</v>
       </c>
-      <c r="C1786" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1787" t="s">
@@ -20370,9 +18669,6 @@
       <c r="B1787">
         <v>2002</v>
       </c>
-      <c r="C1787" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1788" t="s">
@@ -20381,9 +18677,6 @@
       <c r="B1788">
         <v>2003</v>
       </c>
-      <c r="C1788" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1789" t="s">
@@ -20392,9 +18685,6 @@
       <c r="B1789">
         <v>2004</v>
       </c>
-      <c r="C1789" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1790" t="s">
@@ -20414,9 +18704,6 @@
       <c r="B1791">
         <v>2006</v>
       </c>
-      <c r="C1791" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1792" t="s">
@@ -20425,9 +18712,6 @@
       <c r="B1792">
         <v>2007</v>
       </c>
-      <c r="C1792" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1793" t="s">
@@ -20436,9 +18720,6 @@
       <c r="B1793">
         <v>2008</v>
       </c>
-      <c r="C1793" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1794" t="s">
@@ -20447,9 +18728,6 @@
       <c r="B1794">
         <v>2009</v>
       </c>
-      <c r="C1794" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1795" t="s">
@@ -20458,9 +18736,6 @@
       <c r="B1795">
         <v>2010</v>
       </c>
-      <c r="C1795" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1796" t="s">
@@ -20469,9 +18744,6 @@
       <c r="B1796">
         <v>2011</v>
       </c>
-      <c r="C1796" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1797" t="s">
@@ -20480,9 +18752,6 @@
       <c r="B1797">
         <v>2012</v>
       </c>
-      <c r="C1797" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1798" t="s">
@@ -20491,9 +18760,6 @@
       <c r="B1798">
         <v>2013</v>
       </c>
-      <c r="C1798" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1799" t="s">
@@ -20502,9 +18768,6 @@
       <c r="B1799">
         <v>2014</v>
       </c>
-      <c r="C1799" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1800" t="s">
@@ -20512,9 +18775,6 @@
       </c>
       <c r="B1800">
         <v>2015</v>
-      </c>
-      <c r="C1800" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="1801" spans="1:3" x14ac:dyDescent="0.2">
